--- a/medicine/Enfance/Monde_des_Titounis/Monde_des_Titounis.xlsx
+++ b/medicine/Enfance/Monde_des_Titounis/Monde_des_Titounis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Monde des Titounis est une chaîne de comptines sur Youtube destinée aux jeunes enfants. Il comporte des caractères animaliers et des chansons françaises traditionnelles, ainsi que des traductions de chansons anglaises et allemandes traditionnelles[1],[2],[3].
+Le Monde des Titounis est une chaîne de comptines sur Youtube destinée aux jeunes enfants. Il comporte des caractères animaliers et des chansons françaises traditionnelles, ainsi que des traductions de chansons anglaises et allemandes traditionnelles.
 </t>
         </is>
       </c>
